--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1052210446720196</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.549794754404681</v>
+        <v>-1.512846979648637</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2158316769967279</v>
+        <v>0.2263393904157434</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1146641343445275</v>
+        <v>0.1175972428790089</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1206374404097628</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.448935831614915</v>
+        <v>-1.405924835411319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1905516847868744</v>
+        <v>0.199289408401967</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08752937335668315</v>
+        <v>0.093308371768871</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1439585203837584</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.439788851225724</v>
+        <v>-1.383762757701001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1790443113786687</v>
+        <v>0.1939952969277939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1290588722364584</v>
+        <v>0.1346817309553988</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1748534178482607</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.516285712424142</v>
+        <v>-1.458426197345115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.206128448950343</v>
+        <v>0.2256099252863527</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08670415068104302</v>
+        <v>0.08623024231520979</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2113938066807839</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.521072979815938</v>
+        <v>-1.461808207497683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3139679138854904</v>
+        <v>0.3356231475134302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09556690803486906</v>
+        <v>0.1017588227452153</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2490263342588028</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.458956218413209</v>
+        <v>-1.416838756001048</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3716011483934446</v>
+        <v>0.3901067516466575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0286561701129001</v>
+        <v>0.03127821910224</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2827392018725532</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.184215619810016</v>
+        <v>-1.154010518135422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4129086361468836</v>
+        <v>0.422978426519994</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0235688977543291</v>
+        <v>-0.02341946718852583</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3083226266090133</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6050306757253227</v>
+        <v>-0.5803014418865726</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3527820459123833</v>
+        <v>0.3569783001684099</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.017950308480126</v>
+        <v>-0.02009478957957217</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3223130195758518</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009702275162277455</v>
+        <v>0.03029441705064539</v>
       </c>
       <c r="F10" t="n">
-        <v>0.305914521269709</v>
+        <v>0.3084719186673137</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05664062660963905</v>
+        <v>-0.06078503760814211</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3199678613772494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7995355233754473</v>
+        <v>0.8250631433800605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1119280301886357</v>
+        <v>0.1109381289302736</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.002055165723394857</v>
+        <v>-0.001078072799244469</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2945565824210608</v>
       </c>
       <c r="E12" t="n">
-        <v>1.584205793059945</v>
+        <v>1.615203791614311</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2766445039987543</v>
+        <v>-0.2774733861984549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1072548179633921</v>
+        <v>0.1045699471443471</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2406818047022284</v>
       </c>
       <c r="E13" t="n">
-        <v>2.331753240754172</v>
+        <v>2.365624575616698</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6364348814504034</v>
+        <v>-0.6418643953148147</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2283204127738211</v>
+        <v>0.2255062387713056</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1560046933797897</v>
       </c>
       <c r="E14" t="n">
-        <v>3.028702279026056</v>
+        <v>3.065176755336944</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.17592862757504</v>
+        <v>-1.191362060379473</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3988237379587407</v>
+        <v>0.3989530411422113</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0417481304654082</v>
       </c>
       <c r="E15" t="n">
-        <v>3.7448272233749</v>
+        <v>3.775910000903335</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.754813490686773</v>
+        <v>-1.782093412795683</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5413317040809245</v>
+        <v>0.5494534078125016</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.09813072969583013</v>
       </c>
       <c r="E16" t="n">
-        <v>4.366338832663878</v>
+        <v>4.391179681986474</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.257966943049407</v>
+        <v>-2.293619856208714</v>
       </c>
       <c r="G16" t="n">
-        <v>0.719768267508306</v>
+        <v>0.7267725965600808</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2569105386512321</v>
       </c>
       <c r="E17" t="n">
-        <v>4.97124352176636</v>
+        <v>5.003161890621939</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.797927278491755</v>
+        <v>-2.835965591417825</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9287813743024212</v>
+        <v>0.9464105215431471</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4260496557557113</v>
       </c>
       <c r="E18" t="n">
-        <v>5.332078693337279</v>
+        <v>5.358883487239003</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.326967594137607</v>
+        <v>-3.36960775856974</v>
       </c>
       <c r="G18" t="n">
-        <v>1.120061037420087</v>
+        <v>1.140525095966338</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.598903369010546</v>
       </c>
       <c r="E19" t="n">
-        <v>5.647251543522778</v>
+        <v>5.6746491803223</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.81697908567835</v>
+        <v>-3.872260771017102</v>
       </c>
       <c r="G19" t="n">
-        <v>1.352967786725807</v>
+        <v>1.368306681825344</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7724766549117336</v>
       </c>
       <c r="E20" t="n">
-        <v>6.002213178976612</v>
+        <v>6.027529766427071</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.321035830563248</v>
+        <v>-4.377276616166186</v>
       </c>
       <c r="G20" t="n">
-        <v>1.526704301418168</v>
+        <v>1.537196766820265</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9455839470201506</v>
       </c>
       <c r="E21" t="n">
-        <v>6.212300356082481</v>
+        <v>6.232630232079847</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.631301563943969</v>
+        <v>-4.689735014379817</v>
       </c>
       <c r="G21" t="n">
-        <v>1.671001164885254</v>
+        <v>1.683313633586767</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.11428770775544</v>
       </c>
       <c r="E22" t="n">
-        <v>6.352519899825506</v>
+        <v>6.361890721103062</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.907113793176209</v>
+        <v>-4.972667152632074</v>
       </c>
       <c r="G22" t="n">
-        <v>1.863867841603818</v>
+        <v>1.882561910346146</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.271766129014108</v>
       </c>
       <c r="E23" t="n">
-        <v>6.424124587275728</v>
+        <v>6.429884678146936</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.165794570439949</v>
+        <v>-5.242830296556273</v>
       </c>
       <c r="G23" t="n">
-        <v>1.96956831472561</v>
+        <v>1.985964202357951</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.410669430625168</v>
       </c>
       <c r="E24" t="n">
-        <v>6.517130171431686</v>
+        <v>6.518003577840789</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.285659536398199</v>
+        <v>-5.366240121487784</v>
       </c>
       <c r="G24" t="n">
-        <v>2.061282086888215</v>
+        <v>2.084664615872705</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.524911383434137</v>
       </c>
       <c r="E25" t="n">
-        <v>6.530844847769043</v>
+        <v>6.522365730520891</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.31217034853373</v>
+        <v>-5.396742559492292</v>
       </c>
       <c r="G25" t="n">
-        <v>2.124993180939964</v>
+        <v>2.144882084288041</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.611389346737601</v>
       </c>
       <c r="E26" t="n">
-        <v>6.582153814779796</v>
+        <v>6.576699904088315</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.315033316190386</v>
+        <v>-5.391833917885824</v>
       </c>
       <c r="G26" t="n">
-        <v>2.153496603926431</v>
+        <v>2.1768455872737</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.66958444997614</v>
       </c>
       <c r="E27" t="n">
-        <v>6.471739874668095</v>
+        <v>6.455603813244048</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.3023817315926</v>
+        <v>-5.374853726245158</v>
       </c>
       <c r="G27" t="n">
-        <v>2.161334084622643</v>
+        <v>2.183102153575782</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.699476069366029</v>
       </c>
       <c r="E28" t="n">
-        <v>6.37453437673205</v>
+        <v>6.360125610664554</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.223217687274763</v>
+        <v>-5.305115701026124</v>
       </c>
       <c r="G28" t="n">
-        <v>2.120488916742179</v>
+        <v>2.139988690698492</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.701581528314308</v>
       </c>
       <c r="E29" t="n">
-        <v>6.274434195264159</v>
+        <v>6.258881218007083</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.073203427383841</v>
+        <v>-5.138906522365849</v>
       </c>
       <c r="G29" t="n">
-        <v>2.039505479045602</v>
+        <v>2.053206737128071</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.6759258568603</v>
       </c>
       <c r="E30" t="n">
-        <v>6.114841131144908</v>
+        <v>6.091614131932989</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.879320622817815</v>
+        <v>-4.935250348875612</v>
       </c>
       <c r="G30" t="n">
-        <v>1.989500522441736</v>
+        <v>1.99994846363443</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.622976997491027</v>
       </c>
       <c r="E31" t="n">
-        <v>5.945607660808978</v>
+        <v>5.925590064198107</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.749176358733991</v>
+        <v>-4.796942296533516</v>
       </c>
       <c r="G31" t="n">
-        <v>1.883474961599238</v>
+        <v>1.897811147106201</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.545489405504547</v>
       </c>
       <c r="E32" t="n">
-        <v>5.749423015608905</v>
+        <v>5.738944578382373</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.50164218679816</v>
+        <v>-4.546257579341942</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8146039386222</v>
+        <v>1.832276390230975</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.447405397776634</v>
       </c>
       <c r="E33" t="n">
-        <v>5.481964259965407</v>
+        <v>5.479357458992986</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.348133386389811</v>
+        <v>-4.387517184328786</v>
       </c>
       <c r="G33" t="n">
-        <v>1.715670535408928</v>
+        <v>1.734700060523468</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.334716753090748</v>
       </c>
       <c r="E34" t="n">
-        <v>5.262378178239865</v>
+        <v>5.266062099127423</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.132668538677054</v>
+        <v>-4.161178060870289</v>
       </c>
       <c r="G34" t="n">
-        <v>1.569800076595832</v>
+        <v>1.587703078220418</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.213601930630491</v>
       </c>
       <c r="E35" t="n">
-        <v>5.001807866719559</v>
+        <v>5.002264087385766</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.996713255345513</v>
+        <v>-4.027516689203997</v>
       </c>
       <c r="G35" t="n">
-        <v>1.50081743813495</v>
+        <v>1.519459663619755</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.089943205907577</v>
       </c>
       <c r="E36" t="n">
-        <v>4.701983060443749</v>
+        <v>4.697685559355381</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.835920477255099</v>
+        <v>-3.861357219078877</v>
       </c>
       <c r="G36" t="n">
-        <v>1.459213528932612</v>
+        <v>1.474672578405468</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.969832752690978</v>
       </c>
       <c r="E37" t="n">
-        <v>4.379583870080139</v>
+        <v>4.380428000296758</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.695296251143052</v>
+        <v>-3.719138050397134</v>
       </c>
       <c r="G37" t="n">
-        <v>1.363996372402766</v>
+        <v>1.375701360110237</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.857819033433427</v>
       </c>
       <c r="E38" t="n">
-        <v>4.090992582828675</v>
+        <v>4.102037026443228</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.599147745739811</v>
+        <v>-3.619715795761448</v>
       </c>
       <c r="G38" t="n">
-        <v>1.254457058541521</v>
+        <v>1.263573542896874</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7562890679099249</v>
       </c>
       <c r="E39" t="n">
-        <v>3.8274495179299</v>
+        <v>3.843645351580267</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.536501573189665</v>
+        <v>-3.549781986005177</v>
       </c>
       <c r="G39" t="n">
-        <v>1.166669345775143</v>
+        <v>1.173942649845364</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6664671533020765</v>
       </c>
       <c r="E40" t="n">
-        <v>3.48519375001408</v>
+        <v>3.502676516292386</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.461409969230474</v>
+        <v>-3.472607197974553</v>
       </c>
       <c r="G40" t="n">
-        <v>1.079091445721566</v>
+        <v>1.090786064777533</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5885381621960621</v>
       </c>
       <c r="E41" t="n">
-        <v>3.271366539318393</v>
+        <v>3.28408704495265</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.368772777163272</v>
+        <v>-3.378286319879188</v>
       </c>
       <c r="G41" t="n">
-        <v>1.018595243556957</v>
+        <v>1.027313449710393</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5218029340306405</v>
       </c>
       <c r="E42" t="n">
-        <v>2.972395621990029</v>
+        <v>2.982487369507503</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.27896195751212</v>
+        <v>-3.289638923918934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9978951457088042</v>
+        <v>1.014084270231728</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4651741849963063</v>
       </c>
       <c r="E43" t="n">
-        <v>2.64624907898848</v>
+        <v>2.639465541221688</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.186253404725739</v>
+        <v>-3.195397945432223</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9055354675495225</v>
+        <v>0.9184383394661276</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4168528562206252</v>
       </c>
       <c r="E44" t="n">
-        <v>2.417627632357591</v>
+        <v>2.413431378101565</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.151261645580026</v>
+        <v>-3.164435017316769</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8955425271816824</v>
+        <v>0.909368819002884</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3755084655492541</v>
       </c>
       <c r="E45" t="n">
-        <v>2.155759409637166</v>
+        <v>2.146070209766346</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.061648440228141</v>
+        <v>-3.071807888940733</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8226923817095408</v>
+        <v>0.8365607580574381</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3392314049426018</v>
       </c>
       <c r="E46" t="n">
-        <v>2.01255613394349</v>
+        <v>2.00189350067258</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.970833081222386</v>
+        <v>-2.989001093381018</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7842667691537364</v>
+        <v>0.7966133934131473</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3060254320758086</v>
       </c>
       <c r="E47" t="n">
-        <v>1.793563505036423</v>
+        <v>1.773714856453011</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.892801659601269</v>
+        <v>-2.915517545286074</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7111177625499883</v>
+        <v>0.7260961945295671</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2748272337933726</v>
       </c>
       <c r="E48" t="n">
-        <v>1.664336561650428</v>
+        <v>1.64996561066489</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.829329654454806</v>
+        <v>-2.843715243536586</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6465716870917716</v>
+        <v>0.659861248717435</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2442724539476126</v>
       </c>
       <c r="E49" t="n">
-        <v>1.48143354910722</v>
+        <v>1.460487653226338</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.789669562449263</v>
+        <v>-2.805143859939038</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5657431692470887</v>
+        <v>0.5802525722262483</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2135603411701963</v>
       </c>
       <c r="E50" t="n">
-        <v>1.390685891296584</v>
+        <v>1.367951707991477</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.704525855816588</v>
+        <v>-2.722784441195718</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5543144756061836</v>
+        <v>0.5767571168278052</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1820087356439086</v>
       </c>
       <c r="E51" t="n">
-        <v>1.296125009414918</v>
+        <v>1.27467775873775</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.640616537544896</v>
+        <v>-2.651740880768104</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4641645400587601</v>
+        <v>0.4855989824017172</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.149695993640846</v>
       </c>
       <c r="E52" t="n">
-        <v>1.249407525258724</v>
+        <v>1.229856517965565</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.555209345179866</v>
+        <v>-2.568051834949473</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3885978078923827</v>
+        <v>0.4092393533555673</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1166902977356691</v>
       </c>
       <c r="E53" t="n">
-        <v>1.206569746527324</v>
+        <v>1.200916391774546</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.516920354855653</v>
+        <v>-2.520726869799237</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3826132662121308</v>
+        <v>0.403192599766287</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0829265405580471</v>
       </c>
       <c r="E54" t="n">
-        <v>1.129852094043923</v>
+        <v>1.123839496012541</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.462650832879964</v>
+        <v>-2.465038672329433</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3307962352776461</v>
+        <v>0.3494909139406508</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04811363188006736</v>
       </c>
       <c r="E55" t="n">
-        <v>1.108196860415984</v>
+        <v>1.123788872596371</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.440270403567371</v>
+        <v>-2.44293941644882</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3013443856388358</v>
+        <v>0.3212991604200021</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0117689219340678</v>
       </c>
       <c r="E56" t="n">
-        <v>1.094643203137288</v>
+        <v>1.105473564594303</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.409664584008153</v>
+        <v>-2.407576215610968</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2601662010688675</v>
+        <v>0.2717431054342223</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02655267456027301</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9889652970805358</v>
+        <v>1.013421286456103</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.37562003167343</v>
+        <v>-2.374846652255314</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2249609696862928</v>
+        <v>0.2374680030836885</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.06717272463476602</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9925595596286122</v>
+        <v>1.023851539949171</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.399948547627557</v>
+        <v>-2.404189326092986</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2152723797361499</v>
+        <v>0.2325922971937645</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1104550199084261</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9755348437785436</v>
+        <v>1.012433824880448</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.336528385738617</v>
+        <v>-2.332810309293161</v>
       </c>
       <c r="G59" t="n">
-        <v>0.210834596892131</v>
+        <v>0.2269810269676824</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1565466565629634</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9723101931605767</v>
+        <v>1.021686321546716</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.356994274046898</v>
+        <v>-2.351175020870045</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1933646389480364</v>
+        <v>0.2080283518584132</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2054180104042763</v>
       </c>
       <c r="E61" t="n">
-        <v>1.076116862581066</v>
+        <v>1.137587717987119</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.377931021117628</v>
+        <v>-2.378539112032346</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2087468384156224</v>
+        <v>0.2281935492730575</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2566879540955429</v>
       </c>
       <c r="E62" t="n">
-        <v>1.099734211026104</v>
+        <v>1.170964407180803</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.364600594806623</v>
+        <v>-2.363715599904662</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1734287717078494</v>
+        <v>0.1969155971280636</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3093222038547817</v>
       </c>
       <c r="E63" t="n">
-        <v>1.161555770821287</v>
+        <v>1.243979231235666</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.378591565210546</v>
+        <v>-2.37474784510568</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1448545979228796</v>
+        <v>0.1658334295203058</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3626252454168641</v>
       </c>
       <c r="E64" t="n">
-        <v>1.248255385100347</v>
+        <v>1.345601774712721</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.438222289934851</v>
+        <v>-2.438885883631153</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1718210208039415</v>
+        <v>0.1909231264790139</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4157476972441077</v>
       </c>
       <c r="E65" t="n">
-        <v>1.287346421114484</v>
+        <v>1.39880027598004</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.570328058915096</v>
+        <v>-2.572112076894585</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1377746387071881</v>
+        <v>0.1587522504632609</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4680749054217581</v>
       </c>
       <c r="E66" t="n">
-        <v>1.332099960691549</v>
+        <v>1.451453508162346</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.652637464162924</v>
+        <v>-2.660007135700071</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1417104568342434</v>
+        <v>0.1650350433544426</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5186701845186138</v>
       </c>
       <c r="E67" t="n">
-        <v>1.38011596596854</v>
+        <v>1.508372525557828</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.701457344891868</v>
+        <v>-2.710002943493786</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1006371786206757</v>
+        <v>0.1226364075103014</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.56644574204814</v>
       </c>
       <c r="E68" t="n">
-        <v>1.419837659962434</v>
+        <v>1.560085869977266</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.793873745674087</v>
+        <v>-2.808613088748381</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06638830285924197</v>
+        <v>0.08723539159049058</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.61010693194364</v>
       </c>
       <c r="E69" t="n">
-        <v>1.407531290467688</v>
+        <v>1.559863248930253</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.840857155245344</v>
+        <v>-2.866245713335659</v>
       </c>
       <c r="G69" t="n">
-        <v>0.09688250693461462</v>
+        <v>0.1208176240522387</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6479640564796745</v>
       </c>
       <c r="E70" t="n">
-        <v>1.422483495858167</v>
+        <v>1.584411336328009</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.882120118789381</v>
+        <v>-2.904130936171864</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09420556508436739</v>
+        <v>0.1204095871194942</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6787598599060184</v>
       </c>
       <c r="E71" t="n">
-        <v>1.410805344660472</v>
+        <v>1.580565786461112</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.952458000993996</v>
+        <v>-2.979995919549172</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08932497982902943</v>
+        <v>0.1167695805206618</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7021377025601701</v>
       </c>
       <c r="E72" t="n">
-        <v>1.40562162882879</v>
+        <v>1.570332537346633</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.029035981642422</v>
+        <v>-3.05429645639062</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0453350609392525</v>
+        <v>0.07354145255614318</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7176576379485269</v>
       </c>
       <c r="E73" t="n">
-        <v>1.445988618898684</v>
+        <v>1.610600110346217</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.089319626451185</v>
+        <v>-3.123200415084201</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.01157846717013903</v>
+        <v>0.01352708772616453</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7250441291848412</v>
       </c>
       <c r="E74" t="n">
-        <v>1.428995009003129</v>
+        <v>1.586099596761247</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.136089868745918</v>
+        <v>-3.169067059896332</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03404123577409326</v>
+        <v>-0.007701811348728378</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7237984747091164</v>
       </c>
       <c r="E75" t="n">
-        <v>1.408449221086194</v>
+        <v>1.556164689946453</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.142494645772449</v>
+        <v>-3.182497818158663</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.02115666147779054</v>
+        <v>0.008024383380543548</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7137017366220554</v>
       </c>
       <c r="E76" t="n">
-        <v>1.422385908549887</v>
+        <v>1.559786398924983</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.212170154122117</v>
+        <v>-3.255829800965435</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.03488109654597533</v>
+        <v>-0.004687583364239476</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6945134724559481</v>
       </c>
       <c r="E77" t="n">
-        <v>1.321285457172129</v>
+        <v>1.436248185691017</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.228461440358397</v>
+        <v>-3.276739711526389</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.04578037903946313</v>
+        <v>-0.008467871718723938</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6658857062609499</v>
       </c>
       <c r="E78" t="n">
-        <v>1.360110567771204</v>
+        <v>1.471156385704016</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.222085329603672</v>
+        <v>-3.279900930393974</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01729464375262183</v>
+        <v>0.02191288711077358</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6281148080788834</v>
       </c>
       <c r="E79" t="n">
-        <v>1.385020948050948</v>
+        <v>1.498961449515606</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.177514766229631</v>
+        <v>-3.234436833228497</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01711891059153384</v>
+        <v>0.06056051079291427</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5816792464976146</v>
       </c>
       <c r="E80" t="n">
-        <v>1.4273799390511</v>
+        <v>1.530362605637303</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.133287893156937</v>
+        <v>-3.182034583404673</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00669231662252579</v>
+        <v>0.05014550531676443</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5273434932009027</v>
       </c>
       <c r="E81" t="n">
-        <v>1.563620360299021</v>
+        <v>1.659725561334213</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.020116806625997</v>
+        <v>-3.067828461485291</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01233415888862988</v>
+        <v>0.02668063704091314</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4660372953175453</v>
       </c>
       <c r="E82" t="n">
-        <v>1.637370138769366</v>
+        <v>1.735210564129906</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.90474695605538</v>
+        <v>-2.948131223713146</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009585780313018577</v>
+        <v>0.04719531900333408</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.39899118398901</v>
       </c>
       <c r="E83" t="n">
-        <v>1.810394876031962</v>
+        <v>1.910365754316383</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.769679412268846</v>
+        <v>-2.811542537758802</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05019490889158102</v>
+        <v>0.09292412174251971</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3285342023624599</v>
       </c>
       <c r="E84" t="n">
-        <v>2.012349980754749</v>
+        <v>2.109429225110707</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.681171383183228</v>
+        <v>-2.725894426726456</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01489331004208018</v>
+        <v>0.05236744634215761</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2570727056956119</v>
       </c>
       <c r="E85" t="n">
-        <v>2.160958373485767</v>
+        <v>2.247830595316346</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.470709714781836</v>
+        <v>-2.510218546459545</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0624024712366934</v>
+        <v>0.1033958498416071</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1871736050491885</v>
       </c>
       <c r="E86" t="n">
-        <v>2.316685760355788</v>
+        <v>2.404186200483418</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.283326224947237</v>
+        <v>-2.320422820348408</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06410171024211349</v>
+        <v>0.1009378695143125</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1217162824643073</v>
       </c>
       <c r="E87" t="n">
-        <v>2.431797309519802</v>
+        <v>2.517452129679592</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.024275835753388</v>
+        <v>-2.057023086808668</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07647212140791761</v>
+        <v>0.1147080486332534</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06344332524612928</v>
       </c>
       <c r="E88" t="n">
-        <v>2.52574827072472</v>
+        <v>2.611720249636419</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.729304168302462</v>
+        <v>-1.755826568930851</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08647360066523226</v>
+        <v>0.1216885907786349</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01549626524601257</v>
       </c>
       <c r="E89" t="n">
-        <v>2.559912367512085</v>
+        <v>2.643780120089004</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.532629146878283</v>
+        <v>-1.547407524875889</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0401025514534309</v>
+        <v>0.0699386511185924</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02069262049043027</v>
       </c>
       <c r="E90" t="n">
-        <v>2.621217934414739</v>
+        <v>2.698608329404593</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.310753422932228</v>
+        <v>-1.319275234627752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03215833463878745</v>
+        <v>0.06484215394368563</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04399483120675984</v>
       </c>
       <c r="E91" t="n">
-        <v>2.623305082970572</v>
+        <v>2.701654273264273</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9515144137723595</v>
+        <v>-0.9567804688954021</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0391937696450763</v>
+        <v>0.06601381156371865</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0532859583851793</v>
       </c>
       <c r="E92" t="n">
-        <v>2.555644142616202</v>
+        <v>2.637234451386143</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7490762518735883</v>
+        <v>-0.747563648595253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02464167221854439</v>
+        <v>0.05531336321085072</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04850547581360384</v>
       </c>
       <c r="E93" t="n">
-        <v>2.483002590015509</v>
+        <v>2.558740099971375</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4348609771505842</v>
+        <v>-0.4164767481120443</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05389964308833328</v>
+        <v>-0.03270306980930802</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03050475235891669</v>
       </c>
       <c r="E94" t="n">
-        <v>2.430890967394155</v>
+        <v>2.505136611374696</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1775226352963669</v>
+        <v>-0.149004574213658</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09751019131717292</v>
+        <v>-0.0839492149903566</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.001943128056430665</v>
       </c>
       <c r="E95" t="n">
-        <v>2.289295442604386</v>
+        <v>2.353259043816308</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03413447763145116</v>
+        <v>0.06614616435057298</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1424528063040303</v>
+        <v>-0.1344189311499049</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03216629378863614</v>
       </c>
       <c r="E96" t="n">
-        <v>2.133335066035847</v>
+        <v>2.191738630358534</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2010685470160411</v>
+        <v>0.2378150479487581</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1937910495072679</v>
+        <v>-0.1888952162350112</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.0660863861545645</v>
       </c>
       <c r="E97" t="n">
-        <v>1.968741872208616</v>
+        <v>2.018066767257908</v>
       </c>
       <c r="F97" t="n">
-        <v>0.330973112273903</v>
+        <v>0.3667833849678117</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2105376415287393</v>
+        <v>-0.2093360977955456</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09407089344749511</v>
       </c>
       <c r="E98" t="n">
-        <v>1.764961884820999</v>
+        <v>1.799960963014833</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4244599238438151</v>
+        <v>0.4632356308680728</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3391272178075324</v>
+        <v>-0.3490189113430323</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1125601636434115</v>
       </c>
       <c r="E99" t="n">
-        <v>1.608582492747535</v>
+        <v>1.634760898114238</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4759469876921791</v>
+        <v>0.516753730570008</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3275307959805215</v>
+        <v>-0.3335098483746827</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1214377850381496</v>
       </c>
       <c r="E100" t="n">
-        <v>1.432583782265115</v>
+        <v>1.448378898030859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5021162442487312</v>
+        <v>0.5365883509778548</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4182711347430371</v>
+        <v>-0.436500443929683</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.123532448735977</v>
       </c>
       <c r="E101" t="n">
-        <v>1.303575190481396</v>
+        <v>1.303418440867472</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5096573034960443</v>
+        <v>0.5318773236706528</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4216427762441003</v>
+        <v>-0.4405783735744205</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1237092881979324</v>
       </c>
       <c r="E102" t="n">
-        <v>1.097060928699917</v>
+        <v>1.080402165255898</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4665127346642401</v>
+        <v>0.4854550411220046</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.456990729065034</v>
+        <v>-0.4752859096847688</v>
       </c>
     </row>
   </sheetData>
